--- a/EnemyDataTable.xlsx
+++ b/EnemyDataTable.xlsx
@@ -63,22 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +105,18 @@
   <si>
     <t>Meet</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseVital</t>
+  </si>
+  <si>
+    <t>BaseStr</t>
+  </si>
+  <si>
+    <t>BaseTgh</t>
+  </si>
+  <si>
+    <t>BaseDex</t>
   </si>
 </sst>
 </file>
@@ -457,7 +453,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,23 +467,23 @@
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>9</v>
@@ -516,13 +512,13 @@
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
@@ -548,13 +544,13 @@
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="b">
         <v>1</v>
@@ -580,13 +576,13 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="b">
         <v>1</v>
@@ -612,13 +608,13 @@
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="b">
         <v>1</v>
@@ -644,13 +640,13 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="b">
         <v>1</v>
@@ -676,10 +672,10 @@
         <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="b">
@@ -706,10 +702,10 @@
         <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="b">
@@ -736,10 +732,10 @@
         <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="b">
